--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_41.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1439144736842105</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['G', 'C', 'D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.38, 25.18)]</t>
+          <t>[['A', 'D', 'E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.1, 44.9)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:16.069954', '0:00:22.954671')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.366281', '0:00:12.591587')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06709039548022599</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F', 'G', 'C'], ['D/5', 'G', 'C'], ['D', 'G', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['G', 'A', 'D'], ['E', 'A', 'D'], ['E', 'A', 'E'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:04.394943', '0:00:08.342335'), ('0:00:38.435396', '0:00:43.311587'), ('0:00:18.013446', '0:00:21.856349'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.110136', '0:00:12.092358'), ('0:00:21.368730', '0:00:25.443832'), ('0:00:56.454081', '0:01:00.482743'), ('0:00:17.374897', '0:00:24.108684')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1316689466484268</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1457386363636363</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E/5', 'B', 'E', 'A', 'E']]</t>
+          <t>[['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.103323, 20.438561)]</t>
+          <t>[['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(30.035034, 51.200022)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:06.460000', '0:00:12.080000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:15.250000', '0:00:22.530000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(33.698526, 40.885102)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07626514611546686</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Eb:7', 'Bb'], ['C:min7', 'F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1441176470588235</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C:7', 'G'], ['A:min7', 'D:7', 'G', 'G']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.9, 25.84), (40.64, 48.1)]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.32, 50.49), (54.46, 61.21)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2022988505747126</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_69</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.111969111969112</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.564557, 28.578526)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.156734, 13.057687)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:15.580000', '0:01:26.060000'), ('0:01:16.840000', '0:01:30.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:50', '0:00:56.610000'), ('0:00:19.080000', '0:00:27.810000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2080344332855093</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'E/4', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G', 'G']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.875, 9.34)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.608639, 26.921541)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4098837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(62.42, 64.62)]</t>
+          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(73.32, 81.68)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:00.344657', '0:00:11.337709'), ('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:37.239569', '0:00:40.954761'), ('0:00:18.826145', '0:00:26.430680'), ('0:01:42.452811', '0:01:51.264784')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1179487179487179</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.978, 25.693)]</t>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[('0:00:01.922018', '0:00:10.687551')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(64.12, 71.78)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2047619047619048</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(90.128, 99.3)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_81</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.8, 18.44), (24.26, 27.2), (19.12, 20.76)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.94, 14.56), (19.26, 22.26), (15.12, 16.42)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8063909774436091</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.78, 24.86)]</t>
+          <t>[('0:02:13.919000', '0:02:26.159000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7783505154639175</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A', 'D', 'G', 'A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64), (10.56, 17.34)]</t>
+          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E', 'A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66), (87.66, 96.72)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.159256', '0:01:09.054405')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.656213', '0:01:10.800893')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.072680077871512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.37, 8.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.08, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
